--- a/data/hotels_by_city/Houston/Houston_shard_557.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_557.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d631351-Reviews-Rodeway_Inn_Houston-Houston_Texas.html</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Rodeway-Inn-Suites-Houston.h976156.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531618280813&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=5a1d663c-c728-4623-a1c4-8d27bfef4642&amp;mctc=9&amp;exp_dp=46.55&amp;exp_ts=1531618281336&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,290 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r450710186-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>631351</t>
+  </si>
+  <si>
+    <t>450710186</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Motel upgrade</t>
+  </si>
+  <si>
+    <t>We were at a Ramada close by and we liked it for the first time. I went back on priceline to book additional four nights. Priceline stated that I am booking in the same area with the same level quality hotel. Paid for it and off we go in the evening. Priceline said that we booked for two guests. The Rodeway inn said no and that we need to pay extra. I said find since it is getting late and there is no refund. The gentleman behind the counter was so nice by the way. Since it was so cold, I put the heat on high but the door was kind of crooked and signs of prior forced entry. As a result the room is not insulated. Then in the morning I realized there is and inch a half hole in the wall. The second bed had small pillows one third the size of regular hotel pillows. The chairs needed some paint for sure and the table needs some nails as it was rocking back and forth. The mattresses were the cheap kind and would slide everytime I bumped into them with my knees. 
+Let's talk about the breakfast, it was included but guess what? Orange juice was instant. There was only white bread and when we asked for extra, the front desk asked how many do we need. He pit out exactly what we asked for. There was butter...We were at a Ramada close by and we liked it for the first time. I went back on priceline to book additional four nights. Priceline stated that I am booking in the same area with the same level quality hotel. Paid for it and off we go in the evening. Priceline said that we booked for two guests. The Rodeway inn said no and that we need to pay extra. I said find since it is getting late and there is no refund. The gentleman behind the counter was so nice by the way. Since it was so cold, I put the heat on high but the door was kind of crooked and signs of prior forced entry. As a result the room is not insulated. Then in the morning I realized there is and inch a half hole in the wall. The second bed had small pillows one third the size of regular hotel pillows. The chairs needed some paint for sure and the table needs some nails as it was rocking back and forth. The mattresses were the cheap kind and would slide everytime I bumped into them with my knees. Let's talk about the breakfast, it was included but guess what? Orange juice was instant. There was only white bread and when we asked for extra, the front desk asked how many do we need. He pit out exactly what we asked for. There was butter and jam, oat bran, milk, coffee and a waffle machine. Had to shove the breakfast and walked back to our room. After 3 minutes my stomach stared aching badly and I am sure it was the instant orange juice. I decided not to have breakfast here anymore and  Since we have three paid nights that are non-refundable, we might just book an other hotel. Life is too short and at my age, I can't afford to be unhappy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We were at a Ramada close by and we liked it for the first time. I went back on priceline to book additional four nights. Priceline stated that I am booking in the same area with the same level quality hotel. Paid for it and off we go in the evening. Priceline said that we booked for two guests. The Rodeway inn said no and that we need to pay extra. I said find since it is getting late and there is no refund. The gentleman behind the counter was so nice by the way. Since it was so cold, I put the heat on high but the door was kind of crooked and signs of prior forced entry. As a result the room is not insulated. Then in the morning I realized there is and inch a half hole in the wall. The second bed had small pillows one third the size of regular hotel pillows. The chairs needed some paint for sure and the table needs some nails as it was rocking back and forth. The mattresses were the cheap kind and would slide everytime I bumped into them with my knees. 
+Let's talk about the breakfast, it was included but guess what? Orange juice was instant. There was only white bread and when we asked for extra, the front desk asked how many do we need. He pit out exactly what we asked for. There was butter...We were at a Ramada close by and we liked it for the first time. I went back on priceline to book additional four nights. Priceline stated that I am booking in the same area with the same level quality hotel. Paid for it and off we go in the evening. Priceline said that we booked for two guests. The Rodeway inn said no and that we need to pay extra. I said find since it is getting late and there is no refund. The gentleman behind the counter was so nice by the way. Since it was so cold, I put the heat on high but the door was kind of crooked and signs of prior forced entry. As a result the room is not insulated. Then in the morning I realized there is and inch a half hole in the wall. The second bed had small pillows one third the size of regular hotel pillows. The chairs needed some paint for sure and the table needs some nails as it was rocking back and forth. The mattresses were the cheap kind and would slide everytime I bumped into them with my knees. Let's talk about the breakfast, it was included but guess what? Orange juice was instant. There was only white bread and when we asked for extra, the front desk asked how many do we need. He pit out exactly what we asked for. There was butter and jam, oat bran, milk, coffee and a waffle machine. Had to shove the breakfast and walked back to our room. After 3 minutes my stomach stared aching badly and I am sure it was the instant orange juice. I decided not to have breakfast here anymore and  Since we have three paid nights that are non-refundable, we might just book an other hotel. Life is too short and at my age, I can't afford to be unhappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r435635793-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435635793</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>A's others have mentioned, this is an older property.  However, they appear to be actively updating the rooms.  Our room was a recently updated one, with a micro fridge and microwave.  The room was clean and spacious.  This motel failed my "excellent" rating, as breakfast items were minimal and non-memorable.  I felt that it was "very good," due to the basic amenities provided for a budget hotel.  Otherwise, it was a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>A's others have mentioned, this is an older property.  However, they appear to be actively updating the rooms.  Our room was a recently updated one, with a micro fridge and microwave.  The room was clean and spacious.  This motel failed my "excellent" rating, as breakfast items were minimal and non-memorable.  I felt that it was "very good," due to the basic amenities provided for a budget hotel.  Otherwise, it was a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r374538724-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374538724</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Rodeway Inn for a one nighter. The motel is pretty close to IAH so that's why we stayed in this area. The rooms are spacious and clean, free parking, free WiFi and a couple of dinning options near by.  If you're heading to IAH I would recommend this pace.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Rodeway Inn for a one nighter. The motel is pretty close to IAH so that's why we stayed in this area. The rooms are spacious and clean, free parking, free WiFi and a couple of dinning options near by.  If you're heading to IAH I would recommend this pace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r328403642-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328403642</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>One night stay.</t>
+  </si>
+  <si>
+    <t>Arrived late as all the hotels closer to the airport were full due to a monster storm. Stave at the front could not have nicer as he held the room for us.So-so room, but it is a $25 cab ride back to the airport. From the airport you will pay at least $30 as the drivers take the long way. They also tell you about a $7 Houston Tax which is a lie so do not tip!Lucky to have found the place as the other option was sleeping at the airport.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r312051736-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312051736</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Quiet, well-run hotel with updated rooms and new landscaping</t>
+  </si>
+  <si>
+    <t>I always enjoy my time at this hotel.  The property sits far enough away from the highway that noise is eliminated (at least with the blower on, and it runs continuously when on).  The rooms are large and attractive, and there are many restaurants if you go west on FM 1960 (toward Willowbrook Mall), and also north on I-45.  This place is decent, well managed, and the staff, in particular Steve at the front desk, is professional and friendly.  I recommend as a budget hotel that delivers a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>I always enjoy my time at this hotel.  The property sits far enough away from the highway that noise is eliminated (at least with the blower on, and it runs continuously when on).  The rooms are large and attractive, and there are many restaurants if you go west on FM 1960 (toward Willowbrook Mall), and also north on I-45.  This place is decent, well managed, and the staff, in particular Steve at the front desk, is professional and friendly.  I recommend as a budget hotel that delivers a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r272221874-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272221874</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Flawless!</t>
+  </si>
+  <si>
+    <t>After flying 5 hours from Beirut to London,then 2 hours plus in Heathrow followed by 10 hours to Houston my IAH airport experience was a nightmare.However,although late and exhausted Steve from the Rodeway Inn was waiting for me.He drove me to the property and got me checked in and then dropped me off at my room.The room itself was excellent:super clean,oversized king bed,flat screen tv,desk and comfy chair for my laptop,good shower and ac,very quiet.The breakfast the next morning was just right:raisin bran cereal with a sliced banana,toast,orange and apple juice and plenty of good coffee.Steve,the manager,then took me back to the airport for my domestic flight to Brownsville.This hotel does not offer airport pickup,but Steve arranged to pick me up and drop me off with his personal vehicle!Talk about going the extra mile,what an outstanding guy and a perfect one night stop over.I will definitely stay there again on my way back out of the states at the end of my vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded May 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2015</t>
+  </si>
+  <si>
+    <t>After flying 5 hours from Beirut to London,then 2 hours plus in Heathrow followed by 10 hours to Houston my IAH airport experience was a nightmare.However,although late and exhausted Steve from the Rodeway Inn was waiting for me.He drove me to the property and got me checked in and then dropped me off at my room.The room itself was excellent:super clean,oversized king bed,flat screen tv,desk and comfy chair for my laptop,good shower and ac,very quiet.The breakfast the next morning was just right:raisin bran cereal with a sliced banana,toast,orange and apple juice and plenty of good coffee.Steve,the manager,then took me back to the airport for my domestic flight to Brownsville.This hotel does not offer airport pickup,but Steve arranged to pick me up and drop me off with his personal vehicle!Talk about going the extra mile,what an outstanding guy and a perfect one night stop over.I will definitely stay there again on my way back out of the states at the end of my vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r213314107-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213314107</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 6 nights in April. We were on a tight budget and it was great for the price. We slept very well and the room was spacious. With the microwave and small refrigerator we were able to prepare simple meals. The breakfast provided by the hotel was also adequate, with toast, boiled eggs, cereal, juice and fresh fruit. The staff was friendly and professional. We also used the washer and dryer for laundry. Our room was missing a hair dryer at first, but all we had to do was ask.It is true the towels might have been thin, but it is, after all, a budget motel. I also wish there was better lighting, but most hotels need better lighting. I just need to remember to travel with a desk lamp! The wifi was excellent, which was not always true for the other places we stayed during our 3 week roadtrip.Thanks Houston Rodeway Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 6 nights in April. We were on a tight budget and it was great for the price. We slept very well and the room was spacious. With the microwave and small refrigerator we were able to prepare simple meals. The breakfast provided by the hotel was also adequate, with toast, boiled eggs, cereal, juice and fresh fruit. The staff was friendly and professional. We also used the washer and dryer for laundry. Our room was missing a hair dryer at first, but all we had to do was ask.It is true the towels might have been thin, but it is, after all, a budget motel. I also wish there was better lighting, but most hotels need better lighting. I just need to remember to travel with a desk lamp! The wifi was excellent, which was not always true for the other places we stayed during our 3 week roadtrip.Thanks Houston Rodeway Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r212386253-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212386253</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Very Good for the Price</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights and we were pleased with our stay for the price we paid $55 a night for a king size bed, microwave, fridge, coffee pot. The bed was firm and very comfortable.   The simulated bed headboard needed a coat of paint because it had all sorts of scratched on writing on it.  We  will be back to stay at this hotel.  They offered continental breakfast but only until 9am so we didn't go but at least they had that.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r198655119-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198655119</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>AVOID</t>
+  </si>
+  <si>
+    <t>We stayed in for 1 night traveling through Houston. The sheets were stained and the towels gray and dingy. When we called the front desk for "new" linens, the ones that were brought had holes in them. The room also had a lingering smoke odor.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r182165385-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182165385</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>I was looking in the area for a hotel for the weekend and chose Rodeway because of the good rate.  I was not expecting much because of the area.  I could not have been more pleasently surprised.  The hotel was very clean, the property was in great condition and the staff could not have been more friendly.  Would highly recommend and will stay there again when I am back in town.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r178076127-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178076127</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Good stay for the price</t>
+  </si>
+  <si>
+    <t>Stayed two nights without an issue. Everything worked as it should. Friendly staff. With the money saved buy yourself a nice breakfast as what is offered is less than less. Great location with many restaurants close by.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r165166307-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165166307</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>NO HOT WATER</t>
+  </si>
+  <si>
+    <t>The room is clean, and updated. But yesterday I was told I would get hot water if I just let the water run for a bit. Today, I let the shower run 40 minutes and STILL had to take an ice-cold shower. Stay here only if you like cold showers!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
 </sst>
 </file>
@@ -532,11 +825,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +857,869 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_557.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,67 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r498036032-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>631351</t>
+  </si>
+  <si>
+    <t>498036032</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>For an over nighter with a flight in the morning, it's fine.</t>
+  </si>
+  <si>
+    <t>The 2 employees we encountered with checking in and out were very nice.  Location was good as it was 15 minutes from IAH.  Bed was sagging in the middle.  No coffee maker.  Place is one level, so we could hear cars come and go.  Good wifi.  There were no lamps, just horrible, old overhead lighting.  The caulk inside and outside the tub needed to be replaced.  For an overnighter with a flight in the morning, it's fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>The 2 employees we encountered with checking in and out were very nice.  Location was good as it was 15 minutes from IAH.  Bed was sagging in the middle.  No coffee maker.  Place is one level, so we could hear cars come and go.  Good wifi.  There were no lamps, just horrible, old overhead lighting.  The caulk inside and outside the tub needed to be replaced.  For an overnighter with a flight in the morning, it's fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r451550733-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451550733</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>looking for place to move to</t>
+  </si>
+  <si>
+    <t>very bad place to stay at drug dealers were allowed on property at all hours homeless people coming on property at all hours....people fighting in parking lot staff renting out rooms by the hour to people who want quick sex act</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r450710186-Rodeway_Inn_Houston-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>631351</t>
   </si>
   <si>
     <t>450710186</t>
@@ -242,6 +293,57 @@
     <t>We stayed at the Rodeway Inn for a one nighter. The motel is pretty close to IAH so that's why we stayed in this area. The rooms are spacious and clean, free parking, free WiFi and a couple of dinning options near by.  If you're heading to IAH I would recommend this pace.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r361035953-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361035953</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>Hotel cancelled our reservation then when we showed up.. Get this they blamed me. Said I cancelled the reservation, but why would we show up then?  Said hotel was full and turn us away. Funny thing now they will have an empty room since it must have been someone else who cancelled. Make reservation at your own risk they will not be honored.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Hotel cancelled our reservation then when we showed up.. Get this they blamed me. Said I cancelled the reservation, but why would we show up then?  Said hotel was full and turn us away. Funny thing now they will have an empty room since it must have been someone else who cancelled. Make reservation at your own risk they will not be honored.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r335099488-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335099488</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Reserved online for one night room was VERY different from picture on website.</t>
+  </si>
+  <si>
+    <t>After check in we went to our room and noticed holes in the bedspread looked very old and dirty room was not clean ... Called hotels.com and they contacted the hotel directly they asked us to go to the desk and they did give us another cleaner room and the explanation that room was very different from pictures on the website the rooms are staged to show for the pictures.  The second room was cleaner but still we we very disappointed in the whole situation. We have to return to Houston next week and we will be finding a different place to spend the night.  We would have preferred our money back but they were not interested in doing that.  Lesson learned stay away from a bargain it was too good to be true!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded December 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2015</t>
+  </si>
+  <si>
+    <t>After check in we went to our room and noticed holes in the bedspread looked very old and dirty room was not clean ... Called hotels.com and they contacted the hotel directly they asked us to go to the desk and they did give us another cleaner room and the explanation that room was very different from pictures on the website the rooms are staged to show for the pictures.  The second room was cleaner but still we we very disappointed in the whole situation. We have to return to Houston next week and we will be finding a different place to spend the night.  We would have preferred our money back but they were not interested in doing that.  Lesson learned stay away from a bargain it was too good to be true!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r328403642-Rodeway_Inn_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -260,9 +362,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r312051736-Rodeway_Inn_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -281,9 +380,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded September 21, 2015</t>
   </si>
   <si>
@@ -320,6 +416,57 @@
     <t>After flying 5 hours from Beirut to London,then 2 hours plus in Heathrow followed by 10 hours to Houston my IAH airport experience was a nightmare.However,although late and exhausted Steve from the Rodeway Inn was waiting for me.He drove me to the property and got me checked in and then dropped me off at my room.The room itself was excellent:super clean,oversized king bed,flat screen tv,desk and comfy chair for my laptop,good shower and ac,very quiet.The breakfast the next morning was just right:raisin bran cereal with a sliced banana,toast,orange and apple juice and plenty of good coffee.Steve,the manager,then took me back to the airport for my domestic flight to Brownsville.This hotel does not offer airport pickup,but Steve arranged to pick me up and drop me off with his personal vehicle!Talk about going the extra mile,what an outstanding guy and a perfect one night stop over.I will definitely stay there again on my way back out of the states at the end of my vacation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r268377095-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268377095</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Clean, safe, great rate and very friendly staff</t>
+  </si>
+  <si>
+    <t>I needed a place to stay with a late arriving flight. I can't say enough good things about this hotel. Rooms were large and clean. The staff was excellent. Made sure I knew how to get there. Breakfast was your typical cereal, waffle, juice offerings. The two mile drive off exit 66A was worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>I needed a place to stay with a late arriving flight. I can't say enough good things about this hotel. Rooms were large and clean. The staff was excellent. Made sure I knew how to get there. Breakfast was your typical cereal, waffle, juice offerings. The two mile drive off exit 66A was worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r251294383-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251294383</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Overnight layover</t>
+  </si>
+  <si>
+    <t>I stayed here for a night only between legs of a flight. I paid $55 and got what I paid for. The front desk service was great. I needed to print, sign and fax a document for work and Steve made the whole process a breeze. The room was clean but the fixtures are old, there was rust/mold? in the corner where the floor met the tub. I slept well with ear plugs in. There were no vacancies and I will say I wasn't terribly comfortable walking from my room to the lobby after dark, but felt that my room was safe. I thought I was saving money going there rather than a closer airport hotel, but the taxi was $25 each way. So if you're looking for a place to stay for an overnight layover, you'd be better off paying a higher rate closer to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Stevo S, Manager at Rodeway Inn Houston, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for a night only between legs of a flight. I paid $55 and got what I paid for. The front desk service was great. I needed to print, sign and fax a document for work and Steve made the whole process a breeze. The room was clean but the fixtures are old, there was rust/mold? in the corner where the floor met the tub. I slept well with ear plugs in. There were no vacancies and I will say I wasn't terribly comfortable walking from my room to the lobby after dark, but felt that my room was safe. I thought I was saving money going there rather than a closer airport hotel, but the taxi was $25 each way. So if you're looking for a place to stay for an overnight layover, you'd be better off paying a higher rate closer to the airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r213314107-Rodeway_Inn_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -380,6 +527,45 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r195814217-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195814217</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Short Trip</t>
+  </si>
+  <si>
+    <t>This is a good motel for the money. It is not plush, but comfortable. As a woman traveling alone, I felt very safe here. The motel is L shaped with rooms being on the left and at the end. I stayed at the end and it was quiet. There is a large wooden fence on the right with a dentist office next to that with a large fence. No one can enter unless they pass by the office. The rooms are well laid out, with a divider between the bed and the seating area.. My last day there they were installing new carpet. One caution, watch your credit card charges, I was charged by a third party because I made my reservations online and also, by the motel. After a few days this was cleared up. If I go back to Houston, I will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This is a good motel for the money. It is not plush, but comfortable. As a woman traveling alone, I felt very safe here. The motel is L shaped with rooms being on the left and at the end. I stayed at the end and it was quiet. There is a large wooden fence on the right with a dentist office next to that with a large fence. No one can enter unless they pass by the office. The rooms are well laid out, with a divider between the bed and the seating area.. My last day there they were installing new carpet. One caution, watch your credit card charges, I was charged by a third party because I made my reservations online and also, by the motel. After a few days this was cleared up. If I go back to Houston, I will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r191383165-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191383165</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Efficient, friendly, restful hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and was completely satisfied.  The rooms have been recently remodeled--with new carpet is coming in about a month--and they are large, attractive and homey.  It is a peaceful place with even some tall pine trees on both sides of the property.  There is a bit of traffic noise, but it is drowned out by the blower or by decent ear plugs.  The manager, Steve, is very professional, helpful, and good to talk to.  He cares about the hotel and about giving guests a pleasant experience there.  I would definitely return.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r182165385-Rodeway_Inn_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -432,6 +618,24 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d631351-r138602427-Rodeway_Inn_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138602427</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Totally Surprised  :)</t>
+  </si>
+  <si>
+    <t>I was in north side of  houston to visit my relatives and found this hotel. The price was $50 plus tax and i didn't expect much from the room. but i was totally surprised when i get into the room, It was super clean.Staff was very friendly and free breakfast in morning. Best fit for the price. Recommended</t>
+  </si>
+  <si>
+    <t>August 2012</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1170,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -976,17 +1180,27 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1002,7 +1216,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1011,49 +1225,45 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1300,7 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>69</v>
@@ -1098,29 +1308,19 @@
       <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1136,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1145,45 +1345,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1229,7 +1433,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
@@ -1238,7 +1442,7 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1287,37 +1491,31 @@
         <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
         <v>87</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
         <v>97</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>98</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1333,7 +1531,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1342,47 +1540,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>103</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
       <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
       <c r="Y8" t="s">
         <v>107</v>
       </c>
@@ -1421,29 +1617,25 @@
         <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1488,37 +1680,37 @@
         <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1534,7 +1726,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1543,38 +1735,34 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1582,10 +1770,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1601,7 +1793,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1610,49 +1802,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>131</v>
-      </c>
       <c r="O12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -1668,7 +1860,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1677,49 +1869,650 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>3</v>
       </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52045</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
